--- a/data_input/CR/CRR_feb2023.xlsx
+++ b/data_input/CR/CRR_feb2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166CE51F-E151-4858-8CE7-6D54C821E90D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEECED6-81A9-461F-9FAC-67D88748CB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="525" windowWidth="13620" windowHeight="14490" tabRatio="601" firstSheet="10" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="9" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="390">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1511,7 +1508,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1549,7 +1546,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1587,7 +1584,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2466,7 +2463,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>750142067</v>
@@ -2475,7 +2472,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -2484,10 +2481,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -2577,7 +2574,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2589,7 +2586,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2636,7 +2633,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3">
         <v>750847833</v>
@@ -2645,7 +2642,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -2654,10 +2651,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -2747,7 +2744,7 @@
         <v>137</v>
       </c>
       <c r="AL3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -2759,7 +2756,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2806,7 +2803,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4">
         <v>750847833</v>
@@ -2815,7 +2812,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -2824,10 +2821,10 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
@@ -2905,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="AH4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AK4" t="s">
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -2926,7 +2923,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2973,7 +2970,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -3011,7 +3008,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -3028,97 +3025,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3189,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AX1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3343,7 +3340,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3393,7 +3390,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3440,7 +3437,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3481,7 +3478,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3513,7 +3510,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3524,97 +3521,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3680,7 +3677,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3738,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3774,43 +3771,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3821,16 +3818,16 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -3839,16 +3836,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3863,31 +3860,31 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" t="s">
         <v>185</v>
       </c>
-      <c r="T2" t="s">
-        <v>186</v>
-      </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X2">
         <v>0.88</v>
@@ -3905,7 +3902,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3917,13 +3914,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3938,31 +3935,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3970,7 +3967,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3">
         <v>750645715</v>
@@ -3979,7 +3976,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -3988,16 +3985,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -4012,31 +4009,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>4.12</v>
@@ -4054,7 +4051,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4066,13 +4063,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4087,31 +4084,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4119,7 +4116,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4">
         <v>750749689</v>
@@ -4128,7 +4125,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -4137,7 +4134,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="5">
         <v>242900</v>
@@ -4146,7 +4143,7 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -4161,31 +4158,31 @@
         <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" t="s">
-        <v>189</v>
-      </c>
       <c r="V4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X4">
         <v>2.23</v>
@@ -4203,7 +4200,7 @@
         <v>138</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4212,13 +4209,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4233,31 +4230,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5">
         <v>750787339</v>
@@ -4274,7 +4271,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -4283,7 +4280,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="5">
         <v>243436</v>
@@ -4292,7 +4289,7 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>58</v>
@@ -4307,31 +4304,31 @@
         <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
         <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
         <v>72</v>
       </c>
       <c r="W5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -4349,16 +4346,16 @@
         <v>137</v>
       </c>
       <c r="AC5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4373,31 +4370,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4405,7 +4402,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6">
         <v>750709392</v>
@@ -4414,7 +4411,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -4423,16 +4420,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -4447,31 +4444,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T6" t="s">
+        <v>187</v>
+      </c>
+      <c r="U6" t="s">
         <v>188</v>
       </c>
-      <c r="U6" t="s">
-        <v>189</v>
-      </c>
       <c r="V6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X6">
         <v>1.31</v>
@@ -4489,40 +4486,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4530,7 +4527,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7">
         <v>360001654</v>
@@ -4539,7 +4536,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -4548,13 +4545,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -4569,31 +4566,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
+        <v>184</v>
+      </c>
+      <c r="T7" t="s">
         <v>185</v>
       </c>
-      <c r="T7" t="s">
-        <v>186</v>
-      </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -4611,18 +4608,18 @@
         <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B8">
         <v>750853485</v>
@@ -4631,7 +4628,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -4640,16 +4637,16 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -4664,31 +4661,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -4706,96 +4703,96 @@
         <v>137</v>
       </c>
       <c r="AC8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4876,7 +4873,7 @@
   <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4936,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4972,43 +4969,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -5019,7 +5016,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2">
         <v>680016967</v>
@@ -5028,7 +5025,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -5037,16 +5034,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -5061,31 +5058,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>41.08</v>
@@ -5103,7 +5100,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -5115,13 +5112,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -5136,31 +5133,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -5168,7 +5165,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3">
         <v>630001603</v>
@@ -5177,7 +5174,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -5186,7 +5183,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="5">
         <v>243497</v>
@@ -5195,7 +5192,7 @@
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -5210,31 +5207,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>3.54</v>
@@ -5252,7 +5249,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -5264,13 +5261,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -5285,31 +5282,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -5317,16 +5314,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -5335,13 +5332,13 @@
         <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -5356,31 +5353,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>1.78</v>
@@ -5398,7 +5395,7 @@
         <v>138</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -5407,13 +5404,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -5428,31 +5425,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -5460,7 +5457,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="7">
         <v>580002368</v>
@@ -5469,7 +5466,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -5478,16 +5475,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -5502,31 +5499,31 @@
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" t="s">
         <v>198</v>
-      </c>
-      <c r="W5" t="s">
-        <v>199</v>
       </c>
       <c r="X5">
         <v>1.02</v>
@@ -5544,16 +5541,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -5568,31 +5565,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -5600,16 +5597,16 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -5618,16 +5615,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -5642,31 +5639,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" t="s">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -5684,40 +5681,40 @@
         <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5725,13 +5722,13 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -5740,13 +5737,13 @@
         <v>46</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5761,31 +5758,31 @@
         <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V7" t="s">
+        <v>197</v>
+      </c>
+      <c r="W7" t="s">
         <v>198</v>
-      </c>
-      <c r="W7" t="s">
-        <v>199</v>
       </c>
       <c r="X7">
         <v>5.28</v>
@@ -5803,18 +5800,18 @@
         <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8">
         <v>730036386</v>
@@ -5823,7 +5820,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -5832,13 +5829,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5853,31 +5850,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X8">
         <v>1.37</v>
@@ -5895,15 +5892,15 @@
         <v>141</v>
       </c>
       <c r="AC8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9">
         <v>750054253</v>
@@ -5912,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5921,13 +5918,13 @@
         <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -5942,31 +5939,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q9" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" t="s">
-        <v>172</v>
-      </c>
       <c r="R9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" t="s">
-        <v>199</v>
       </c>
       <c r="X9">
         <v>2.13</v>
@@ -5984,15 +5981,15 @@
         <v>141</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="7">
         <v>750038728</v>
@@ -6001,7 +5998,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -6010,13 +6007,13 @@
         <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -6031,31 +6028,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X10">
         <v>3.53</v>
@@ -6073,24 +6070,24 @@
         <v>139</v>
       </c>
       <c r="AC10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" t="s">
         <v>297</v>
-      </c>
-      <c r="B11" t="s">
-        <v>298</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -6099,13 +6096,13 @@
         <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
@@ -6120,31 +6117,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
+        <v>197</v>
+      </c>
+      <c r="W11" t="s">
         <v>198</v>
-      </c>
-      <c r="W11" t="s">
-        <v>199</v>
       </c>
       <c r="X11">
         <v>1.44</v>
@@ -6162,15 +6159,15 @@
         <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12">
         <v>610001549</v>
@@ -6179,7 +6176,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -6188,16 +6185,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -6212,31 +6209,31 @@
         <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S12" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" t="s">
         <v>185</v>
       </c>
-      <c r="T12" t="s">
-        <v>186</v>
-      </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V12" t="s">
+        <v>197</v>
+      </c>
+      <c r="W12" t="s">
         <v>198</v>
-      </c>
-      <c r="W12" t="s">
-        <v>199</v>
       </c>
       <c r="X12">
         <v>1.21</v>
@@ -6254,15 +6251,15 @@
         <v>137</v>
       </c>
       <c r="AC12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13">
         <v>530005771</v>
@@ -6271,7 +6268,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -6280,16 +6277,16 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>58</v>
@@ -6304,31 +6301,31 @@
         <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" t="s">
         <v>198</v>
-      </c>
-      <c r="W13" t="s">
-        <v>199</v>
       </c>
       <c r="X13">
         <v>1.23</v>
@@ -6346,21 +6343,21 @@
         <v>139</v>
       </c>
       <c r="AC13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -6369,13 +6366,13 @@
         <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>56</v>
@@ -6390,31 +6387,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X14">
         <v>10.15</v>
@@ -6432,24 +6429,24 @@
         <v>139</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -6458,16 +6455,16 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
         <v>57</v>
@@ -6482,31 +6479,31 @@
         <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
+        <v>197</v>
+      </c>
+      <c r="W15" t="s">
         <v>198</v>
-      </c>
-      <c r="W15" t="s">
-        <v>199</v>
       </c>
       <c r="X15">
         <v>1.3</v>
@@ -6524,24 +6521,24 @@
         <v>137</v>
       </c>
       <c r="AC15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -6550,7 +6547,7 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" s="5">
         <v>243314</v>
@@ -6559,7 +6556,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -6574,31 +6571,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X16">
         <v>3.71</v>
@@ -6616,15 +6613,15 @@
         <v>139</v>
       </c>
       <c r="AC16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B17">
         <v>730014624</v>
@@ -6633,7 +6630,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -6642,7 +6639,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" s="5">
         <v>243436</v>
@@ -6651,7 +6648,7 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -6666,31 +6663,31 @@
         <v>76</v>
       </c>
       <c r="O17" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>174</v>
+      </c>
+      <c r="R17" t="s">
+        <v>178</v>
+      </c>
+      <c r="S17" t="s">
+        <v>183</v>
+      </c>
+      <c r="T17" t="s">
         <v>164</v>
       </c>
-      <c r="P17" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>175</v>
-      </c>
-      <c r="R17" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" t="s">
-        <v>184</v>
-      </c>
-      <c r="T17" t="s">
-        <v>165</v>
-      </c>
       <c r="U17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W17" t="s">
         <v>198</v>
-      </c>
-      <c r="W17" t="s">
-        <v>199</v>
       </c>
       <c r="X17">
         <v>6.44</v>
@@ -6708,21 +6705,21 @@
         <v>140</v>
       </c>
       <c r="AC17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -6731,13 +6728,13 @@
         <v>46</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -6752,31 +6749,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V18" t="s">
+        <v>197</v>
+      </c>
+      <c r="W18" t="s">
         <v>198</v>
-      </c>
-      <c r="W18" t="s">
-        <v>199</v>
       </c>
       <c r="X18">
         <v>1.37</v>
@@ -6794,21 +6791,21 @@
         <v>141</v>
       </c>
       <c r="AC18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6823,7 +6820,7 @@
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>57</v>
@@ -6838,31 +6835,31 @@
         <v>78</v>
       </c>
       <c r="O19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P19" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q19" t="s">
         <v>171</v>
       </c>
-      <c r="Q19" t="s">
-        <v>172</v>
-      </c>
       <c r="R19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X19">
         <v>6.16</v>
@@ -6880,15 +6877,15 @@
         <v>137</v>
       </c>
       <c r="AC19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20">
         <v>610005077</v>
@@ -6897,7 +6894,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6906,7 +6903,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H20" s="5">
         <v>243498</v>
@@ -6915,7 +6912,7 @@
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -6930,31 +6927,31 @@
         <v>76</v>
       </c>
       <c r="O20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X20">
         <v>1.74</v>
@@ -6972,24 +6969,24 @@
         <v>137</v>
       </c>
       <c r="AC20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" t="s">
         <v>344</v>
-      </c>
-      <c r="B21" t="s">
-        <v>345</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6998,7 +6995,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H21" s="5">
         <v>243436</v>
@@ -7007,7 +7004,7 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -7022,31 +7019,31 @@
         <v>77</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V21" t="s">
+        <v>197</v>
+      </c>
+      <c r="W21" t="s">
         <v>198</v>
-      </c>
-      <c r="W21" t="s">
-        <v>199</v>
       </c>
       <c r="X21">
         <v>1.32</v>
@@ -7064,21 +7061,21 @@
         <v>139</v>
       </c>
       <c r="AC21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN21" t="s">
         <v>222</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E22" t="s">
         <v>44</v>
@@ -7087,13 +7084,13 @@
         <v>46</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
@@ -7108,31 +7105,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X22">
         <v>1.6</v>
@@ -7150,15 +7147,15 @@
         <v>141</v>
       </c>
       <c r="AC22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B23">
         <v>750910765</v>
@@ -7167,7 +7164,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -7176,7 +7173,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H23" s="5">
         <v>243436</v>
@@ -7185,7 +7182,7 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>56</v>
@@ -7200,31 +7197,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T23" t="s">
+        <v>187</v>
+      </c>
+      <c r="U23" t="s">
         <v>188</v>
       </c>
-      <c r="U23" t="s">
-        <v>189</v>
-      </c>
       <c r="V23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X23">
         <v>2.0499999999999998</v>
@@ -7242,15 +7239,15 @@
         <v>137</v>
       </c>
       <c r="AC23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B24">
         <v>730019093</v>
@@ -7259,7 +7256,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
@@ -7268,13 +7265,13 @@
         <v>46</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K24" t="s">
         <v>57</v>
@@ -7289,31 +7286,31 @@
         <v>77</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V24" t="s">
+        <v>197</v>
+      </c>
+      <c r="W24" t="s">
         <v>198</v>
-      </c>
-      <c r="W24" t="s">
-        <v>199</v>
       </c>
       <c r="X24">
         <v>3.94</v>
@@ -7331,15 +7328,15 @@
         <v>137</v>
       </c>
       <c r="AC24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25">
         <v>540003044</v>
@@ -7348,7 +7345,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -7357,13 +7354,13 @@
         <v>46</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I25" t="s">
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s">
         <v>56</v>
@@ -7378,31 +7375,31 @@
         <v>76</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V25" t="s">
+        <v>197</v>
+      </c>
+      <c r="W25" t="s">
         <v>198</v>
-      </c>
-      <c r="W25" t="s">
-        <v>199</v>
       </c>
       <c r="X25">
         <v>7.33</v>
@@ -7420,15 +7417,15 @@
         <v>138</v>
       </c>
       <c r="AC25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26">
         <v>530015194</v>
@@ -7437,7 +7434,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -7452,7 +7449,7 @@
         <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
         <v>57</v>
@@ -7467,31 +7464,31 @@
         <v>76</v>
       </c>
       <c r="O26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X26">
         <v>1.55</v>
@@ -7509,18 +7506,18 @@
         <v>139</v>
       </c>
       <c r="AC26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
@@ -7529,13 +7526,13 @@
         <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
         <v>57</v>
@@ -7550,31 +7547,31 @@
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V27" t="s">
+        <v>197</v>
+      </c>
+      <c r="W27" t="s">
         <v>198</v>
-      </c>
-      <c r="W27" t="s">
-        <v>199</v>
       </c>
       <c r="X27">
         <v>2.9</v>
@@ -7592,12 +7589,12 @@
         <v>141</v>
       </c>
       <c r="AC27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28">
         <v>710001230</v>
@@ -7606,7 +7603,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
@@ -7615,7 +7612,7 @@
         <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H28" s="5">
         <v>243436</v>
@@ -7624,7 +7621,7 @@
         <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K28" t="s">
         <v>57</v>
@@ -7639,31 +7636,31 @@
         <v>76</v>
       </c>
       <c r="O28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V28" t="s">
+        <v>197</v>
+      </c>
+      <c r="W28" t="s">
         <v>198</v>
-      </c>
-      <c r="W28" t="s">
-        <v>199</v>
       </c>
       <c r="X28">
         <v>0.79</v>
@@ -7681,12 +7678,12 @@
         <v>139</v>
       </c>
       <c r="AC28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29">
         <v>750078422</v>
@@ -7695,7 +7692,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
@@ -7704,13 +7701,13 @@
         <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I29" t="s">
         <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s">
         <v>56</v>
@@ -7725,31 +7722,31 @@
         <v>75</v>
       </c>
       <c r="O29" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" t="s">
         <v>166</v>
       </c>
-      <c r="P29" t="s">
-        <v>167</v>
-      </c>
       <c r="Q29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V29" t="s">
+        <v>197</v>
+      </c>
+      <c r="W29" t="s">
         <v>198</v>
-      </c>
-      <c r="W29" t="s">
-        <v>199</v>
       </c>
       <c r="X29">
         <v>5.28</v>
@@ -7767,21 +7764,21 @@
         <v>137</v>
       </c>
       <c r="AC29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B30" t="s">
         <v>378</v>
-      </c>
-      <c r="B30" t="s">
-        <v>379</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30" t="s">
         <v>45</v>
@@ -7790,16 +7787,16 @@
         <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I30" t="s">
         <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s">
         <v>56</v>
@@ -7814,31 +7811,31 @@
         <v>76</v>
       </c>
       <c r="O30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V30" t="s">
+        <v>197</v>
+      </c>
+      <c r="W30" t="s">
         <v>198</v>
-      </c>
-      <c r="W30" t="s">
-        <v>199</v>
       </c>
       <c r="X30">
         <v>7.8</v>
@@ -7856,12 +7853,12 @@
         <v>139</v>
       </c>
       <c r="AC30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B31">
         <v>750967765</v>
@@ -7870,7 +7867,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
@@ -7879,13 +7876,13 @@
         <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I31" t="s">
         <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s">
         <v>57</v>
@@ -7900,31 +7897,31 @@
         <v>76</v>
       </c>
       <c r="O31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X31">
         <v>4.82</v>
@@ -7942,7 +7939,7 @@
         <v>141</v>
       </c>
       <c r="AC31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8025,7 +8022,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8084,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8120,43 +8117,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -8167,13 +8164,13 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -8182,16 +8179,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -8206,31 +8203,31 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q2" t="s">
         <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X2">
         <v>1.91</v>
@@ -8248,7 +8245,7 @@
         <v>141</v>
       </c>
       <c r="AC2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -8260,13 +8257,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -8281,31 +8278,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -8313,7 +8310,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="7">
         <v>750798436</v>
@@ -8322,7 +8319,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -8331,16 +8328,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -8355,31 +8352,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" t="s">
         <v>185</v>
       </c>
-      <c r="T3" t="s">
-        <v>186</v>
-      </c>
       <c r="U3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X3">
         <v>251.51</v>
@@ -8397,7 +8394,7 @@
         <v>141</v>
       </c>
       <c r="AC3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -8409,13 +8406,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -8430,31 +8427,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -8462,16 +8459,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -8480,16 +8477,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" t="s">
         <v>57</v>
@@ -8504,31 +8501,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
         <v>72</v>
       </c>
       <c r="W4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X4">
         <v>1.06</v>
@@ -8546,7 +8543,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -8555,13 +8552,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -8576,31 +8573,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -8608,13 +8605,13 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -8623,13 +8620,13 @@
         <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -8644,31 +8641,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X5">
         <v>3.21</v>
@@ -8686,16 +8683,16 @@
         <v>138</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -8710,31 +8707,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -8742,7 +8739,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6">
         <v>750708003</v>
@@ -8751,7 +8748,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -8760,13 +8757,13 @@
         <v>46</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
@@ -8781,31 +8778,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" t="s">
-        <v>172</v>
-      </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>7.26</v>
@@ -8823,40 +8820,40 @@
         <v>140</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -8864,7 +8861,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7">
         <v>750918579</v>
@@ -8873,7 +8870,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -8882,7 +8879,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="5">
         <v>243406</v>
@@ -8891,7 +8888,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -8906,31 +8903,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -8948,27 +8945,27 @@
         <v>138</v>
       </c>
       <c r="AC7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -8977,7 +8974,7 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="5">
         <v>243467</v>
@@ -8986,7 +8983,7 @@
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -9001,31 +8998,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>1.69</v>
@@ -9043,15 +9040,15 @@
         <v>137</v>
       </c>
       <c r="AC8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9">
         <v>750711560</v>
@@ -9060,7 +9057,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -9069,16 +9066,16 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -9093,31 +9090,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>1.19</v>
@@ -9135,15 +9132,15 @@
         <v>137</v>
       </c>
       <c r="AC9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10">
         <v>750715418</v>
@@ -9152,7 +9149,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -9161,16 +9158,16 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -9185,31 +9182,31 @@
         <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V10" t="s">
+        <v>197</v>
+      </c>
+      <c r="W10" t="s">
         <v>198</v>
-      </c>
-      <c r="W10" t="s">
-        <v>199</v>
       </c>
       <c r="X10">
         <v>1.36</v>
@@ -9227,15 +9224,15 @@
         <v>137</v>
       </c>
       <c r="AC10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B11">
         <v>750708003</v>
@@ -9244,7 +9241,7 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -9253,7 +9250,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H11" s="5">
         <v>243112</v>
@@ -9262,7 +9259,7 @@
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
@@ -9277,31 +9274,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X11">
         <v>11.08</v>
@@ -9319,15 +9316,15 @@
         <v>141</v>
       </c>
       <c r="AC11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12">
         <v>750934460</v>
@@ -9336,7 +9333,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -9345,7 +9342,7 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" s="5">
         <v>243588</v>
@@ -9354,7 +9351,7 @@
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -9369,31 +9366,31 @@
         <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V12" t="s">
+        <v>197</v>
+      </c>
+      <c r="W12" t="s">
         <v>198</v>
-      </c>
-      <c r="W12" t="s">
-        <v>199</v>
       </c>
       <c r="X12">
         <v>5</v>
@@ -9411,15 +9408,15 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13">
         <v>750912456</v>
@@ -9428,7 +9425,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -9437,7 +9434,7 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H13" s="5">
         <v>243588</v>
@@ -9446,7 +9443,7 @@
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -9461,31 +9458,31 @@
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V13" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" t="s">
         <v>198</v>
-      </c>
-      <c r="W13" t="s">
-        <v>199</v>
       </c>
       <c r="X13">
         <v>2.48</v>
@@ -9503,15 +9500,15 @@
         <v>141</v>
       </c>
       <c r="AC13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14">
         <v>750068349</v>
@@ -9520,7 +9517,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -9529,16 +9526,16 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -9553,31 +9550,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W14" t="s">
         <v>198</v>
-      </c>
-      <c r="W14" t="s">
-        <v>199</v>
       </c>
       <c r="X14">
         <v>6.14</v>
@@ -9595,15 +9592,15 @@
         <v>139</v>
       </c>
       <c r="AC14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B15">
         <v>750173853</v>
@@ -9612,7 +9609,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -9621,16 +9618,16 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -9645,31 +9642,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" t="s">
         <v>185</v>
       </c>
-      <c r="T15" t="s">
-        <v>186</v>
-      </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X15">
         <v>3.11</v>
@@ -9687,24 +9684,24 @@
         <v>140</v>
       </c>
       <c r="AC15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" t="s">
         <v>338</v>
-      </c>
-      <c r="B16" t="s">
-        <v>339</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
@@ -9713,16 +9710,16 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I16" t="s">
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -9737,31 +9734,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X16">
         <v>1.22</v>
@@ -9779,15 +9776,15 @@
         <v>137</v>
       </c>
       <c r="AC16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B17">
         <v>550001382</v>
@@ -9796,7 +9793,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -9805,7 +9802,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H17" s="5">
         <v>243498</v>
@@ -9814,7 +9811,7 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -9829,31 +9826,31 @@
         <v>75</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W17" t="s">
         <v>198</v>
-      </c>
-      <c r="W17" t="s">
-        <v>199</v>
       </c>
       <c r="X17">
         <v>1.92</v>
@@ -9871,24 +9868,24 @@
         <v>137</v>
       </c>
       <c r="AC17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" t="s">
         <v>347</v>
-      </c>
-      <c r="B18" t="s">
-        <v>348</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -9897,7 +9894,7 @@
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H18" s="5">
         <v>243498</v>
@@ -9906,7 +9903,7 @@
         <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -9921,31 +9918,31 @@
         <v>75</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X18">
         <v>1.07</v>
@@ -9963,15 +9960,15 @@
         <v>137</v>
       </c>
       <c r="AC18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19">
         <v>730004741</v>
@@ -9980,7 +9977,7 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
@@ -9989,16 +9986,16 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I19" t="s">
         <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>57</v>
@@ -10013,31 +10010,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>199</v>
       </c>
       <c r="X19">
         <v>1.18</v>
@@ -10055,15 +10052,15 @@
         <v>137</v>
       </c>
       <c r="AC19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20">
         <v>750809485</v>
@@ -10072,7 +10069,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -10081,16 +10078,16 @@
         <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -10105,31 +10102,31 @@
         <v>77</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V20" t="s">
+        <v>197</v>
+      </c>
+      <c r="W20" t="s">
         <v>198</v>
-      </c>
-      <c r="W20" t="s">
-        <v>199</v>
       </c>
       <c r="X20">
         <v>1.37</v>
@@ -10147,15 +10144,15 @@
         <v>141</v>
       </c>
       <c r="AC20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN20" t="s">
         <v>221</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B21">
         <v>750930282</v>
@@ -10164,7 +10161,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -10173,7 +10170,7 @@
         <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H21" s="5">
         <v>243286</v>
@@ -10182,7 +10179,7 @@
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -10197,31 +10194,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X21">
         <v>38.42</v>
@@ -10239,15 +10236,15 @@
         <v>140</v>
       </c>
       <c r="AC21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B22">
         <v>730014657</v>
@@ -10256,7 +10253,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
@@ -10265,7 +10262,7 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H22" s="5">
         <v>243286</v>
@@ -10274,7 +10271,7 @@
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
         <v>57</v>
@@ -10289,31 +10286,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -10331,15 +10328,15 @@
         <v>137</v>
       </c>
       <c r="AC22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN22" t="s">
         <v>223</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23">
         <v>690001559</v>
@@ -10348,7 +10345,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" t="s">
         <v>43</v>
@@ -10357,16 +10354,16 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
         <v>56</v>
@@ -10381,31 +10378,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X23">
         <v>0.08</v>
@@ -10423,21 +10420,21 @@
         <v>139</v>
       </c>
       <c r="AC23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
@@ -10446,13 +10443,13 @@
         <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s">
         <v>57</v>
@@ -10467,31 +10464,31 @@
         <v>76</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V24" t="s">
+        <v>197</v>
+      </c>
+      <c r="W24" t="s">
         <v>198</v>
-      </c>
-      <c r="W24" t="s">
-        <v>199</v>
       </c>
       <c r="X24">
         <v>1.43</v>
@@ -10509,15 +10506,15 @@
         <v>139</v>
       </c>
       <c r="AC24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10786,7 +10783,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10842,7 +10839,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10895,7 +10892,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10942,7 +10939,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10980,7 +10977,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10997,97 +10994,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11347,7 +11344,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11403,7 +11400,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11456,7 +11453,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11503,7 +11500,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11541,7 +11538,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11558,97 +11555,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11898,7 +11895,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B2">
         <v>750765651</v>
@@ -11907,7 +11904,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -11916,7 +11913,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="5">
         <v>243374</v>
@@ -12009,7 +12006,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -12021,7 +12018,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -12068,7 +12065,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3">
         <v>750765939</v>
@@ -12077,7 +12074,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -12086,7 +12083,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5">
         <v>243497</v>
@@ -12179,7 +12176,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -12191,7 +12188,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -12244,7 +12241,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -12291,7 +12288,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -12329,7 +12326,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -12346,97 +12343,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12688,7 +12685,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>610013853</v>
@@ -12697,7 +12694,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -12706,10 +12703,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -12799,7 +12796,7 @@
         <v>137</v>
       </c>
       <c r="AL2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -12811,7 +12808,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -12858,7 +12855,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3">
         <v>750902516</v>
@@ -12867,7 +12864,7 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -12876,7 +12873,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -12948,22 +12945,22 @@
         <v>0.85</v>
       </c>
       <c r="AG3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH3" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" t="s">
-        <v>274</v>
-      </c>
       <c r="AI3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>273</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>274</v>
       </c>
       <c r="AK3" t="s">
         <v>139</v>
       </c>
       <c r="AL3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -12975,7 +12972,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -13022,13 +13019,13 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -13037,7 +13034,7 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I4" t="s">
         <v>48</v>
@@ -13127,7 +13124,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -13136,7 +13133,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -13180,7 +13177,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5">
         <v>750893627</v>
@@ -13189,7 +13186,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -13198,10 +13195,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
@@ -13291,13 +13288,13 @@
         <v>141</v>
       </c>
       <c r="AL5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -13332,7 +13329,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6">
         <v>750933349</v>
@@ -13341,7 +13338,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -13350,10 +13347,10 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
@@ -13428,28 +13425,28 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="AG6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH6" t="s">
         <v>273</v>
       </c>
-      <c r="AH6" t="s">
-        <v>274</v>
-      </c>
       <c r="AI6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>273</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>274</v>
       </c>
       <c r="AK6" t="s">
         <v>141</v>
       </c>
       <c r="AL6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX6" t="s">
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -13466,13 +13463,13 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -13571,21 +13568,21 @@
         <v>138</v>
       </c>
       <c r="AL7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -13594,7 +13591,7 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I8" t="s">
         <v>48</v>
@@ -13684,21 +13681,21 @@
         <v>141</v>
       </c>
       <c r="AL8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -13797,90 +13794,90 @@
         <v>141</v>
       </c>
       <c r="AL9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -14130,7 +14127,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2">
         <v>750934066</v>
@@ -14139,7 +14136,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -14148,10 +14145,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -14241,7 +14238,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -14253,7 +14250,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -14300,7 +14297,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3">
         <v>750810015</v>
@@ -14309,7 +14306,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -14318,7 +14315,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5">
         <v>243314</v>
@@ -14411,7 +14408,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -14423,7 +14420,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -14470,7 +14467,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>750397321</v>
@@ -14479,7 +14476,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -14488,7 +14485,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H4" s="5">
         <v>243406</v>
@@ -14581,7 +14578,7 @@
         <v>139</v>
       </c>
       <c r="AL4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -14590,7 +14587,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -14634,7 +14631,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5">
         <v>750397349</v>
@@ -14643,7 +14640,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -14652,7 +14649,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="5">
         <v>243416</v>
@@ -14745,13 +14742,13 @@
         <v>139</v>
       </c>
       <c r="AL5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX5" t="s">
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -14789,7 +14786,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -14806,97 +14803,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -15124,16 +15121,16 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -15142,10 +15139,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I2" t="s">
         <v>50</v>
@@ -15223,7 +15220,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -15235,7 +15232,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -15273,7 +15270,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3">
         <v>750417720</v>
@@ -15282,7 +15279,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -15291,7 +15288,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="5">
         <v>243374</v>
@@ -15372,7 +15369,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -15384,7 +15381,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -15422,7 +15419,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4">
         <v>750417720</v>
@@ -15431,7 +15428,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -15440,7 +15437,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="5">
         <v>243374</v>
@@ -15521,7 +15518,7 @@
         <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -15530,7 +15527,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -15568,7 +15565,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -15600,7 +15597,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -15614,97 +15611,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -15923,13 +15920,13 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -16016,7 +16013,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -16028,7 +16025,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -16066,7 +16063,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3">
         <v>580001729</v>
@@ -16075,7 +16072,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -16084,7 +16081,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H3" s="5">
         <v>243436</v>
@@ -16165,7 +16162,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -16177,7 +16174,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -16221,7 +16218,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -16259,7 +16256,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -16291,7 +16288,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -16305,97 +16302,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -16634,7 +16631,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>530006666</v>
@@ -16643,7 +16640,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -16652,10 +16649,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -16745,7 +16742,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" t="s">
         <v>38</v>
@@ -16757,7 +16754,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -16813,7 +16810,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -16866,7 +16863,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -16913,7 +16910,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -16948,7 +16945,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -16962,97 +16959,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
